--- a/Example/Example/Config/AllType/Data所有Class类型.xlsx
+++ b/Example/Example/Config/AllType/Data所有Class类型.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="81">
   <si>
     <t>VarString</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,26 +166,6 @@
   </si>
   <si>
     <t>枚举类型字典</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,6 +293,38 @@
   <si>
     <t>dict&lt;int,string&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test.ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -708,778 +720,803 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.21875" customWidth="1"/>
-    <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.21875" customWidth="1"/>
-    <col min="25" max="25" width="2.88671875" customWidth="1"/>
-    <col min="26" max="26" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.33203125" customWidth="1"/>
-    <col min="35" max="35" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.33203125" customWidth="1"/>
-    <col min="37" max="37" width="7.33203125" customWidth="1"/>
-    <col min="38" max="38" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.109375" customWidth="1"/>
-    <col min="45" max="46" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="5"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.21875" customWidth="1"/>
+    <col min="23" max="23" width="22" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.21875" customWidth="1"/>
+    <col min="26" max="26" width="2.88671875" customWidth="1"/>
+    <col min="27" max="27" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.33203125" customWidth="1"/>
+    <col min="36" max="36" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" customWidth="1"/>
+    <col min="38" max="38" width="7.33203125" customWidth="1"/>
+    <col min="39" max="39" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="1">
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>16</v>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>17</v>
+    <row r="3" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
         <v>1000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>123.4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>1.2</v>
+      </c>
+      <c r="K4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="Y4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I4">
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4">
+        <v>999</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH4">
+        <v>11</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK4" s="2"/>
+      <c r="AN4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ4">
+        <v>1.7</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU4">
         <v>1.2</v>
       </c>
-      <c r="J4" s="6" t="b">
+      <c r="AV4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q4">
-        <v>1.5</v>
-      </c>
-      <c r="R4" t="s">
-        <v>61</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4">
-        <v>999</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG4">
-        <v>11</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ4" s="2"/>
-      <c r="AM4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP4">
-        <v>1.7</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT4">
-        <v>1.2</v>
-      </c>
-      <c r="AU4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>61</v>
+      <c r="AW4" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5">
         <v>10005</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>123.4567</v>
       </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>59</v>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5">
         <v>1.2</v>
       </c>
-      <c r="J5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="K5" s="6">
+        <v>77777777</v>
+      </c>
+      <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
-        <v>48</v>
-      </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5">
+        <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5">
         <v>1.3</v>
       </c>
-      <c r="R5" t="s">
-        <v>61</v>
-      </c>
-      <c r="W5" s="3" t="s">
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5">
+        <v>111</v>
+      </c>
+      <c r="AC5">
+        <v>222</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AN5" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA5">
-        <v>111</v>
-      </c>
-      <c r="AB5">
-        <v>222</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5">
-        <v>4</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ5" s="3"/>
-      <c r="AM5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>58</v>
-      </c>
       <c r="AO5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP5">
+        <v>53</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ5">
         <v>1.6</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>61</v>
+      <c r="AR5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6">
         <v>2000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>123.45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6">
+        <v>1.5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6">
+        <v>888</v>
+      </c>
+      <c r="AC6">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6">
+        <v>11</v>
+      </c>
+      <c r="AI6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6">
-        <v>1.2</v>
-      </c>
-      <c r="J6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="AJ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK6" s="2"/>
+      <c r="AN6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ6">
+        <v>1.7</v>
+      </c>
+      <c r="AR6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="AS6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT6" t="s">
         <v>47</v>
       </c>
-      <c r="Q6">
-        <v>1.5</v>
-      </c>
-      <c r="R6" t="s">
-        <v>61</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA6">
-        <v>888</v>
-      </c>
-      <c r="AB6">
-        <v>13</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6">
-        <v>11</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ6" s="2"/>
-      <c r="AM6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP6">
-        <v>1.7</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>5.6</v>
       </c>
-      <c r="AU6" t="s">
-        <v>61</v>
+      <c r="AV6" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7">
         <v>3000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>123.456</v>
       </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7">
         <v>1.4</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
+      <c r="K7" s="6"/>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7">
+        <v>53</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7">
         <v>1.4</v>
       </c>
-      <c r="R7" t="s">
-        <v>61</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>44</v>
+      <c r="S7" t="s">
+        <v>56</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA7">
+        <v>39</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7">
         <v>777</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>666</v>
       </c>
-      <c r="AC7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG7">
+      <c r="AD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH7">
         <v>3</v>
       </c>
-      <c r="AH7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ7" s="3"/>
-      <c r="AM7" t="s">
-        <v>48</v>
-      </c>
+      <c r="AI7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK7" s="3"/>
       <c r="AN7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AO7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP7">
+        <v>53</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ7">
         <v>1.4</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>61</v>
+      <c r="AR7" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8">
         <v>5000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>123.45677999999999</v>
       </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8">
         <v>1.6</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8">
+        <v>1.6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8">
+        <v>1.6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8">
-        <v>1.6</v>
-      </c>
-      <c r="R8" t="s">
-        <v>58</v>
-      </c>
-      <c r="S8" t="s">
-        <v>50</v>
-      </c>
-      <c r="T8">
-        <v>1.6</v>
-      </c>
-      <c r="U8" t="s">
-        <v>61</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X8" s="3" t="s">
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB8">
+        <v>888</v>
+      </c>
+      <c r="AC8">
+        <v>777</v>
+      </c>
+      <c r="AD8">
+        <v>666</v>
+      </c>
+      <c r="AE8">
+        <v>555</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH8">
+        <v>5</v>
+      </c>
+      <c r="AI8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA8">
-        <v>888</v>
-      </c>
-      <c r="AB8">
-        <v>777</v>
-      </c>
-      <c r="AC8">
-        <v>666</v>
-      </c>
-      <c r="AD8">
-        <v>555</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>11</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AK8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN8" t="s">
         <v>45</v>
       </c>
-      <c r="AK8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>58</v>
-      </c>
       <c r="AO8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP8">
+        <v>53</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ8">
         <v>1.7</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS8" t="s">
         <v>53</v>
       </c>
-      <c r="AR8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT8">
+      <c r="AT8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU8">
         <v>5.6</v>
       </c>
-      <c r="AU8" t="s">
-        <v>61</v>
+      <c r="AV8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Example/Example/Config/AllType/Data所有Class类型.xlsx
+++ b/Example/Example/Config/AllType/Data所有Class类型.xlsx
@@ -295,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,6 +321,10 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>A1\nX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -723,7 +723,7 @@
   <dimension ref="A1:AW8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
         <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>58</v>
@@ -878,7 +878,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -922,7 +922,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>62</v>
@@ -993,7 +993,7 @@
         <v>123.4</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>68</v>
@@ -1101,7 +1101,7 @@
         <v>123.4567</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>63</v>
@@ -1110,7 +1110,7 @@
         <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
         <v>64</v>
@@ -1200,7 +1200,7 @@
         <v>123.45</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>63</v>
@@ -1308,7 +1308,7 @@
         <v>123.456</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>63</v>
@@ -1405,7 +1405,7 @@
         <v>123.45677999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>63</v>
